--- a/Documents/powerConsumption.xlsx
+++ b/Documents/powerConsumption.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emirhan\Desktop\LOTUSAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edesa\Desktop\n-Lotusat\lotusat\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD9250-305F-449C-8821-B8378FBD5F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11952" windowHeight="5064"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,17 +446,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Component" dataDxfId="7"/>
-    <tableColumn id="2" name="I(Active)" dataDxfId="6"/>
-    <tableColumn id="3" name="I(standby)" dataDxfId="5"/>
-    <tableColumn id="4" name="Vdd" dataDxfId="4"/>
-    <tableColumn id="5" name="TypPower" dataDxfId="3"/>
-    <tableColumn id="6" name="MaxPower" dataDxfId="2"/>
-    <tableColumn id="7" name="Info" dataDxfId="1"/>
-    <tableColumn id="8" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Component" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="I(Active)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="I(standby)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Vdd" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TypPower" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MaxPower" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Info" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -724,11 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +984,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="https://www.skyworksinc.com/-/media/Skyworks/SL/documents/public/data-sheets/Si5351-B.pdf datasheet"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://www.skyworksinc.com/-/media/Skyworks/SL/documents/public/data-sheets/Si5351-B.pdf datasheet" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Documents/powerConsumption.xlsx
+++ b/Documents/powerConsumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edesa\Desktop\n-Lotusat\lotusat\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD9250-305F-449C-8821-B8378FBD5F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9BEAE0-E072-41FD-8379-C06AB1AB8164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Column1</t>
   </si>
@@ -168,6 +168,9 @@
       </rPr>
       <t xml:space="preserve"> https://www.iqdfrequencyproducts.com/products/pn/LFTVXO009900Bulk.pdf</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/filter/memory/774?s=N4IgjCBcpgLATFUBjKAzAhgGwM4FMAaEAeygG0QB2eABgGYGQjr6A2SkAXSIAcAXKCADKfAE4BLAHYBzEAF8iATlYRoIVJEy5CJciDqxKlAKwAOLrwGRhYqbIUhasOknXps%2BIqUgVYNFf5MIH4B5kQhYDSKQRGRMf5gifEqYIjcIPyCIhIy8kQAtLCuGlqeuj76ipGsQWb%2BNUTGrFFhIE3%2BNFxyDogVksSiAARoWBg4ABYWIDVq4gAmgvmREJaCQXwAnjx4gnM4qN1AA</t>
   </si>
 </sst>
 </file>
@@ -725,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,6 +985,11 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" display="https://www.skyworksinc.com/-/media/Skyworks/SL/documents/public/data-sheets/Si5351-B.pdf datasheet" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
